--- a/Enigma - Prototype.xlsx
+++ b/Enigma - Prototype.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="63E2BC6621E43059836B63AEED78B6F68789A9E6" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{478560D1-487F-4594-BBD5-5615A2C51693}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -583,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BE28"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.85546875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -594,873 +595,873 @@
     <col min="1" max="16384" width="4.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U2" s="4" t="s">
+    <row r="1" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R4" s="2"/>
-      <c r="S4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="2"/>
+    <row r="4" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+    </row>
+    <row r="5" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="AH5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AJ5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-    </row>
-    <row r="6" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AK6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
+      <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="AS6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT6" s="2"/>
+      <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ6" s="2"/>
-    </row>
-    <row r="7" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="2"/>
+      <c r="AY6" s="2"/>
+    </row>
+    <row r="7" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3" t="s">
-        <v>36</v>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
       <c r="AD7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
+      <c r="AP7" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
+      <c r="AV7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AZ7" s="2"/>
-    </row>
-    <row r="8" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>6</v>
+      <c r="AY7" s="2"/>
+    </row>
+    <row r="8" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="V8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AK8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="2"/>
-      <c r="AQ8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR8" s="2"/>
-      <c r="AU8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="3" t="s">
+      <c r="AX8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-    </row>
-    <row r="9" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="9" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="W9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="S9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AJ9" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AY9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+      <c r="AX9" s="2"/>
+    </row>
+    <row r="10" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="T10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
+      <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AK10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
+      <c r="AN10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-    </row>
-    <row r="11" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AX11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+    </row>
+    <row r="12" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF12" s="2"/>
+      <c r="AG12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AK12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
-    </row>
-    <row r="13" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AH13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
+    </row>
+    <row r="13" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="L13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV13" s="2"/>
+        <v>48</v>
+      </c>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-    </row>
-    <row r="14" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BA13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
       <c r="AV14" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="BB14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+    </row>
+    <row r="15" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="K15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="Y15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="AG15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="AR15" s="2"/>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
       <c r="AW15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="BA15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
-    </row>
-    <row r="16" spans="5:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="4:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="N16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>30</v>
+      <c r="Y16" s="2"/>
+      <c r="AC16" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AH16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-    </row>
-    <row r="17" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="O17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="R17" s="2"/>
-      <c r="S17" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AD17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="BB17" s="2"/>
       <c r="BC17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-    </row>
-    <row r="18" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2"/>
+    </row>
+    <row r="18" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="X18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="BD18" s="3" t="s">
+      <c r="AR18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC18" s="2"/>
+    </row>
+    <row r="19" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="P19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="R19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AS19" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR19" s="2"/>
+      <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
-      <c r="BC19" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
     </row>
-    <row r="20" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
-        <v>22</v>
+      <c r="N20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="Q20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AR20" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
+      <c r="BB20" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-    </row>
-    <row r="21" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" s="2"/>
+      <c r="U21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="BC21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+      <c r="AQ21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="V22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="3" t="s">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
-      <c r="AR22" s="3" t="s">
+      <c r="AQ22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AT22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+    </row>
+    <row r="23" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AP23" s="2"/>
+      <c r="AO23" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ23" s="2"/>
-      <c r="AR23" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
+      <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-    </row>
-    <row r="24" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="24" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AP24" s="3" t="s">
+      <c r="H24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="BB24" s="2"/>
+      <c r="AU24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="BB24" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-    </row>
-    <row r="25" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    </row>
+    <row r="25" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW25" s="2"/>
+      <c r="AV25" s="2"/>
       <c r="AX25" s="2"/>
       <c r="AY25" s="2"/>
-      <c r="BC25" s="3" t="s">
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BD25" s="2"/>
-    </row>
-    <row r="26" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="2"/>
+      <c r="BC25" s="2"/>
+    </row>
+    <row r="26" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="3" t="s">
+      <c r="BB26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BD26" s="2"/>
-    </row>
-    <row r="27" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC26" s="2"/>
+    </row>
+    <row r="27" spans="1:56" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="L27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="AX27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD27" s="2"/>
-    </row>
-    <row r="28" spans="2:57" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Enigma - Prototype.xlsx
+++ b/Enigma - Prototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="6" documentId="63E2BC6621E43059836B63AEED78B6F68789A9E6" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{478560D1-487F-4594-BBD5-5615A2C51693}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.85546875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
